--- a/USHPRR/UMo_defects_pressure_diffusion.xlsx
+++ b/USHPRR/UMo_defects_pressure_diffusion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84259581-9FE8-2F4D-816B-922020EC90B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129EBBD0-5F72-0849-A2AF-B5E6339216AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="3000" windowWidth="35280" windowHeight="16940" activeTab="7" xr2:uid="{722D8BD5-8471-1043-985F-97373411828A}"/>
+    <workbookView xWindow="2020" yWindow="3000" windowWidth="35280" windowHeight="16940" activeTab="8" xr2:uid="{722D8BD5-8471-1043-985F-97373411828A}"/>
   </bookViews>
   <sheets>
     <sheet name="u10mo" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="44">
   <si>
     <t>int0</t>
   </si>
@@ -4667,6 +4667,367 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'summary fits'!$N$29:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'summary fits'!$N$30:$R$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.12453809661969778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.12215546255457164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1214482101770919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.12814339785599374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.12172447248027196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9659-224C-BD96-2D1BFA0F7688}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="917215568"/>
+        <c:axId val="917251056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="917215568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917251056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="917251056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917215568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -8761,6 +9122,158 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$B$53:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.9265868570291058</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.670469095114866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.549602649216217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.604562914137839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$L$53:$L$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0519884583828364E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4493781143774093E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2200763002237876E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8946406962465296E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03B3-6A41-AB5D-2A66BF59BD20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$B$60:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.2889735100984563</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9265868570291058</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.670469095114866</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.549602649216217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$L$60:$L$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.6908850250579452E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6151851043396464E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.199583045128404E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3925628867080076E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-03B3-6A41-AB5D-2A66BF59BD20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -8997,6 +9510,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Interstitial Diffusivity vs Pressure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9950,6 +10488,46 @@
 </file>
 
 <file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13922,6 +14500,522 @@
 </file>
 
 <file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19184,6 +20278,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE05AC34-AF71-EFD0-C092-27565473AAC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19487,7 +20617,7 @@
   <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -52715,8 +53845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73537E1B-F9D8-3843-9222-702CB9B4EAB3}">
   <dimension ref="A1:AH75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13:Q16"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -52968,19 +54098,19 @@
         <v>1000</v>
       </c>
       <c r="M8" s="1">
-        <v>2.66829152591315E-8</v>
+        <v>6.3305428020700497E-9</v>
       </c>
       <c r="N8" s="1">
-        <v>2.6430038894472399E-8</v>
+        <v>1.1173421552538801E-8</v>
       </c>
       <c r="O8" s="1">
-        <v>2.4990406629415699E-8</v>
+        <v>8.6781283034575798E-9</v>
       </c>
       <c r="P8" s="1">
-        <v>2.9816196519913002E-8</v>
+        <v>1.0880886717167901E-8</v>
       </c>
       <c r="Q8" s="1">
-        <v>2.2995692764569099E-8</v>
+        <v>8.8771442691067202E-9</v>
       </c>
       <c r="R8" s="1"/>
     </row>
@@ -53259,23 +54389,23 @@
       </c>
       <c r="M16" s="2">
         <f>M8*5487*$B$9/6</f>
-        <v>1.2200763002237876E-6</v>
+        <v>2.8946406962465296E-7</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>1.2085135284497505E-6</v>
+        <v>5.1090470048983667E-7</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="4"/>
-        <v>1.1426863431300327E-6</v>
+        <v>3.9680741667559783E-7</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="4"/>
-        <v>1.363345585873022E-6</v>
+        <v>4.9752854514250217E-7</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="4"/>
-        <v>1.051478051659922E-6</v>
+        <v>4.0590742170490476E-7</v>
       </c>
       <c r="R16" s="1"/>
     </row>
@@ -58173,7 +59303,7 @@
         <v>1300</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ref="E13:I16" si="3">E5*5489*$B$9/6</f>
+        <f t="shared" ref="E13:I15" si="3">E5*5489*$B$9/6</f>
         <v>2.0800802227676657E-5</v>
       </c>
       <c r="F13" s="2">
@@ -62792,8 +63922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD85C2A0-15F3-694C-B365-17D31BFFBBCC}">
   <dimension ref="B4:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AO19" sqref="AO19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -64351,19 +65481,19 @@
         <v>1000</v>
       </c>
       <c r="L56">
-        <v>1.2200763002237876E-6</v>
+        <v>2.8946406962465296E-7</v>
       </c>
       <c r="M56">
-        <v>1.2085135284497505E-6</v>
+        <v>5.1090470048983667E-7</v>
       </c>
       <c r="N56">
-        <v>1.1426863431300327E-6</v>
+        <v>3.9680741667559783E-7</v>
       </c>
       <c r="O56">
-        <v>1.363345585873022E-6</v>
+        <v>4.9752854514250217E-7</v>
       </c>
       <c r="P56">
-        <v>1.051478051659922E-6</v>
+        <v>4.0590742170490476E-7</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.2">
@@ -64584,8 +65714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122406FC-F6E2-B840-ADBA-E9E493C3DFAE}">
   <dimension ref="B2:AJ116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -65698,6 +66828,9 @@
       <c r="B20" t="s">
         <v>30</v>
       </c>
+      <c r="T20" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
@@ -66216,6 +67349,21 @@
       </c>
       <c r="L29" t="s">
         <v>39</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <v>10</v>
+      </c>
+      <c r="Q29">
+        <v>-5</v>
+      </c>
+      <c r="R29">
+        <v>-10</v>
       </c>
       <c r="U29" t="s">
         <v>38</v>
@@ -66284,6 +67432,21 @@
       <c r="L30">
         <v>-7.4042067716246329</v>
       </c>
+      <c r="N30">
+        <v>-0.12453809661969778</v>
+      </c>
+      <c r="O30">
+        <v>-0.12215546255457164</v>
+      </c>
+      <c r="P30">
+        <v>-0.1214482101770919</v>
+      </c>
+      <c r="Q30">
+        <v>-0.12814339785599374</v>
+      </c>
+      <c r="R30">
+        <v>-0.12172447248027196</v>
+      </c>
       <c r="U30" cm="1">
         <f t="array" ref="U30:V34">LINEST(AA22:AA26,T22:T26,TRUE, TRUE)</f>
         <v>-0.59037493427441445</v>
@@ -66570,6 +67733,9 @@
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="T36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -67431,6 +68597,9 @@
       <c r="B52" t="s">
         <v>27</v>
       </c>
+      <c r="T52" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="53" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
@@ -68922,25 +70091,25 @@
         <v>-10.369559918391115</v>
       </c>
       <c r="J104">
-        <f t="shared" ref="J104:J108" si="51">LN(E104)</f>
+        <f t="shared" ref="J104:J107" si="51">LN(E104)</f>
         <v>-10.433143868367114</v>
       </c>
       <c r="K104">
-        <f t="shared" ref="K104:K108" si="52">LN(F104)</f>
+        <f t="shared" ref="K104:K107" si="52">LN(F104)</f>
         <v>-10.431388060552525</v>
       </c>
       <c r="L104">
-        <f t="shared" ref="L104:L108" si="53">LN(G104)</f>
+        <f t="shared" ref="L104:L107" si="53">LN(G104)</f>
         <v>-10.308280236164908</v>
       </c>
       <c r="M104">
-        <f t="shared" ref="M104:M108" si="54">LN(H104)</f>
+        <f t="shared" ref="M104:M107" si="54">LN(H104)</f>
         <v>-10.308806941920821</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B105">
-        <f t="shared" ref="B105:B108" si="55">1/((0.000086173)*C105)</f>
+        <f t="shared" ref="B105:B107" si="55">1/((0.000086173)*C105)</f>
         <v>8.9265868570291058</v>
       </c>
       <c r="C105">
@@ -68962,7 +70131,7 @@
         <v>2.1186500140908743E-5</v>
       </c>
       <c r="I105">
-        <f t="shared" ref="I105:I108" si="56">LN(D105)</f>
+        <f t="shared" ref="I105:I107" si="56">LN(D105)</f>
         <v>-10.780519003362452</v>
       </c>
       <c r="J105">

--- a/USHPRR/UMo_defects_pressure_diffusion.xlsx
+++ b/USHPRR/UMo_defects_pressure_diffusion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437715B2-D271-294F-9DFE-D2B97B7C9383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BEEA5C-394A-2A4D-A462-AFB34DEEA75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="2200" windowWidth="33320" windowHeight="16940" activeTab="5" xr2:uid="{722D8BD5-8471-1043-985F-97373411828A}"/>
+    <workbookView minimized="1" xWindow="3380" yWindow="2200" windowWidth="33320" windowHeight="16940" activeTab="8" xr2:uid="{722D8BD5-8471-1043-985F-97373411828A}"/>
   </bookViews>
   <sheets>
     <sheet name="u10mo" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="48">
   <si>
     <t>int0</t>
   </si>
@@ -4456,30 +4456,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'summary fits'!$Q$6:$Q$12</c:f>
+              <c:f>'summary fits'!$P$6:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-6.7282011766947525</c:v>
+                  <c:v>-0.32582452143779767</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.4105596545081385</c:v>
+                  <c:v>-0.22272750687886961</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.9043889442109574</c:v>
+                  <c:v>-0.44274242109919942</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.0598412567443471</c:v>
+                  <c:v>-0.12453809661969778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.205305996412898</c:v>
+                  <c:v>-0.27258255074416321</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.7613147946186158</c:v>
+                  <c:v>-0.63304243569527829</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.1503758623540215</c:v>
+                  <c:v>-0.74721725359803293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5117,30 +5117,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'summary fits'!$AI$6:$AI$12</c:f>
+              <c:f>'summary fits'!$AH$6:$AH$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-4.6354335787771763</c:v>
+                  <c:v>-0.69210656615731425</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.9753452680622203</c:v>
+                  <c:v>-0.59037493427441445</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.6522796393652452</c:v>
+                  <c:v>-0.75167340755453094</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.1423545968780084</c:v>
+                  <c:v>-0.41978606168222909</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.1781060504945167</c:v>
+                  <c:v>-1.4280850898092239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.7635323282855317</c:v>
+                  <c:v>-0.8426327772067681</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.8861689707446967</c:v>
+                  <c:v>-0.894225210155422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41907,7 +41907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0245B34-3E6A-2E4D-B128-23A2E034799E}">
   <dimension ref="A1:AH85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="O33" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -48054,7 +48054,7 @@
   <dimension ref="A1:AH117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" activeCellId="1" sqref="E12:I12 E13:I13"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -56542,8 +56542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73537E1B-F9D8-3843-9222-702CB9B4EAB3}">
   <dimension ref="A1:AH88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView topLeftCell="M3" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -56650,6 +56650,9 @@
       <c r="P4" s="1">
         <v>1.7886491871371801E-7</v>
       </c>
+      <c r="Q4" s="1">
+        <v>1.8197947040051E-7</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C5">
@@ -56959,7 +56962,7 @@
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.3210112840633194E-6</v>
       </c>
       <c r="R12" s="1"/>
     </row>
@@ -57324,6 +57327,15 @@
       <c r="AE20">
         <v>0.99704823394653797</v>
       </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>1.6787579789244701E-7</v>
+      </c>
+      <c r="AH20">
+        <v>0.99301631157452397</v>
+      </c>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.2">
       <c r="D21">
@@ -57407,6 +57419,15 @@
       <c r="AE21">
         <v>0.99562999404321195</v>
       </c>
+      <c r="AF21">
+        <v>2</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>1.9459080832520799E-7</v>
+      </c>
+      <c r="AH21">
+        <v>0.99286766249866099</v>
+      </c>
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.2">
       <c r="D22">
@@ -57490,6 +57511,15 @@
       <c r="AE22">
         <v>0.99471242393508197</v>
       </c>
+      <c r="AF22">
+        <v>3</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>1.7078126102152601E-7</v>
+      </c>
+      <c r="AH22">
+        <v>0.99618682096585798</v>
+      </c>
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.2">
       <c r="D23">
@@ -57573,6 +57603,15 @@
       <c r="AE23">
         <v>0.99695065913804704</v>
       </c>
+      <c r="AF23">
+        <v>4</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>1.5550677245931199E-7</v>
+      </c>
+      <c r="AH23">
+        <v>0.99399479319080597</v>
+      </c>
     </row>
     <row r="24" spans="2:34" x14ac:dyDescent="0.2">
       <c r="D24">
@@ -57656,6 +57695,15 @@
       <c r="AE24">
         <v>0.99820966077144202</v>
       </c>
+      <c r="AF24">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>1.95521818375459E-7</v>
+      </c>
+      <c r="AH24">
+        <v>0.99758297107758498</v>
+      </c>
     </row>
     <row r="25" spans="2:34" x14ac:dyDescent="0.2">
       <c r="D25">
@@ -57739,6 +57787,15 @@
       <c r="AE25">
         <v>0.99898419161945995</v>
       </c>
+      <c r="AF25">
+        <v>6</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>1.7120115280132E-7</v>
+      </c>
+      <c r="AH25">
+        <v>0.99332858660608903</v>
+      </c>
     </row>
     <row r="26" spans="2:34" x14ac:dyDescent="0.2">
       <c r="D26">
@@ -57822,6 +57879,15 @@
       <c r="AE26">
         <v>0.99848811474607602</v>
       </c>
+      <c r="AF26">
+        <v>7</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>2.0560095406135201E-7</v>
+      </c>
+      <c r="AH26">
+        <v>0.99677012933417097</v>
+      </c>
     </row>
     <row r="27" spans="2:34" x14ac:dyDescent="0.2">
       <c r="D27">
@@ -57905,6 +57971,15 @@
       <c r="AE27">
         <v>0.99709342446566096</v>
       </c>
+      <c r="AF27">
+        <v>8</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>1.8631943048826199E-7</v>
+      </c>
+      <c r="AH27">
+        <v>0.99596907560773196</v>
+      </c>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.2">
       <c r="D28">
@@ -57988,6 +58063,15 @@
       <c r="AE28">
         <v>0.99808385516602405</v>
       </c>
+      <c r="AF28">
+        <v>9</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>1.9622019616740401E-7</v>
+      </c>
+      <c r="AH28">
+        <v>0.99739003725943998</v>
+      </c>
     </row>
     <row r="29" spans="2:34" x14ac:dyDescent="0.2">
       <c r="D29">
@@ -58071,6 +58155,15 @@
       <c r="AE29">
         <v>0.99882390032641999</v>
       </c>
+      <c r="AF29">
+        <v>10</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>1.7617651241281001E-7</v>
+      </c>
+      <c r="AH29">
+        <v>0.99579199852723799</v>
+      </c>
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
@@ -58153,6 +58246,15 @@
       </c>
       <c r="AE30" s="1">
         <v>8.94535842349746E-9</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>1.8197947040051E-7</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>1.59757201425869E-8</v>
       </c>
     </row>
     <row r="31" spans="2:34" x14ac:dyDescent="0.2">
@@ -58199,9 +58301,9 @@
         <f>AE30/AD30</f>
         <v>5.0011810520625012E-2</v>
       </c>
-      <c r="AH31" s="4" t="e">
+      <c r="AH31" s="4">
         <f>AH30/AG30</f>
-        <v>#DIV/0!</v>
+        <v>8.7788584654228813E-2</v>
       </c>
     </row>
     <row r="32" spans="2:34" x14ac:dyDescent="0.2">
@@ -62661,8 +62763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EA97D5-91F8-8443-A39A-03D5D0CAF38A}">
   <dimension ref="A1:AH73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:I15"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z67" sqref="Z67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -67689,8 +67791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD85C2A0-15F3-694C-B365-17D31BFFBBCC}">
   <dimension ref="B4:T67"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53:H53"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69117,6 +69219,24 @@
       </c>
       <c r="H53" s="2">
         <v>4.2472349716766331E-5</v>
+      </c>
+      <c r="K53">
+        <v>1400</v>
+      </c>
+      <c r="L53" s="2">
+        <v>7.9208513126511822E-6</v>
+      </c>
+      <c r="M53" s="2">
+        <v>7.3875715711492113E-6</v>
+      </c>
+      <c r="N53" s="2">
+        <v>7.6501204440005267E-6</v>
+      </c>
+      <c r="O53" s="2">
+        <v>8.1785984081847566E-6</v>
+      </c>
+      <c r="P53" s="2">
+        <v>8.3210112840633194E-6</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
@@ -69513,8 +69633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122406FC-F6E2-B840-ADBA-E9E493C3DFAE}">
   <dimension ref="B2:BK116"/>
   <sheetViews>
-    <sheetView topLeftCell="J53" workbookViewId="0">
-      <selection activeCell="T71" sqref="T70:T71"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -70551,14 +70671,14 @@
         <v>0.52</v>
       </c>
       <c r="AH11">
-        <v>-1.0486337820479501</v>
+        <v>-0.8426327772067681</v>
       </c>
       <c r="AI11">
-        <v>-2.7635323282855317</v>
+        <v>-4.7333808527297236</v>
       </c>
       <c r="AJ11" s="5">
-        <f t="shared" si="9"/>
-        <v>6.3068595448067061E-2</v>
+        <f>EXP(AI11)</f>
+        <v>8.7966804282293021E-3</v>
       </c>
       <c r="AM11">
         <v>4.1439451426586226E-7</v>
@@ -75409,10 +75529,45 @@
       <c r="U70">
         <v>1400</v>
       </c>
+      <c r="V70" s="2">
+        <v>7.9208513126511822E-6</v>
+      </c>
+      <c r="W70" s="2">
+        <v>7.3875715711492113E-6</v>
+      </c>
+      <c r="X70" s="2">
+        <v>7.6501204440005267E-6</v>
+      </c>
+      <c r="Y70" s="2">
+        <v>8.1785984081847566E-6</v>
+      </c>
+      <c r="Z70" s="2">
+        <v>8.3210112840633194E-6</v>
+      </c>
+      <c r="AA70">
+        <f>LN(V70)</f>
+        <v>-11.746011868943356</v>
+      </c>
+      <c r="AB70">
+        <f t="shared" ref="AB70" si="70">LN(W70)</f>
+        <v>-11.815711487136962</v>
+      </c>
+      <c r="AC70">
+        <f>LN(X70)</f>
+        <v>-11.780789165935976</v>
+      </c>
+      <c r="AD70">
+        <f t="shared" ref="AD70" si="71">LN(Y70)</f>
+        <v>-11.713989765773329</v>
+      </c>
+      <c r="AE70">
+        <f t="shared" ref="AE70" si="72">LN(Z70)</f>
+        <v>-11.696726761952283</v>
+      </c>
     </row>
     <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B71">
-        <f t="shared" ref="B71:B74" si="70">1/((0.000086173)*C71)</f>
+        <f t="shared" ref="B71:B74" si="73">1/((0.000086173)*C71)</f>
         <v>8.9265868570291058</v>
       </c>
       <c r="C71">
@@ -75434,7 +75589,7 @@
         <v>3.1612263782180487E-5</v>
       </c>
       <c r="I71">
-        <f t="shared" ref="I71:I74" si="71">LN(D71)</f>
+        <f t="shared" ref="I71:I74" si="74">LN(D71)</f>
         <v>-10.416164421076298</v>
       </c>
       <c r="J71">
@@ -75480,25 +75635,25 @@
         <v>-12.195728638042606</v>
       </c>
       <c r="AB71">
-        <f t="shared" ref="AB71:AB74" si="72">LN(W71)</f>
+        <f t="shared" ref="AB71:AB74" si="75">LN(W71)</f>
         <v>-12.318298735028037</v>
       </c>
       <c r="AC71">
-        <f t="shared" ref="AC71:AC74" si="73">LN(X71)</f>
+        <f t="shared" ref="AC71:AC74" si="76">LN(X71)</f>
         <v>-12.385831172404821</v>
       </c>
       <c r="AD71">
-        <f t="shared" ref="AD71:AD74" si="74">LN(Y71)</f>
+        <f t="shared" ref="AD71:AD74" si="77">LN(Y71)</f>
         <v>-12.313794903749553</v>
       </c>
       <c r="AE71">
-        <f t="shared" ref="AE71:AE74" si="75">LN(Z71)</f>
+        <f t="shared" ref="AE71:AE74" si="78">LN(Z71)</f>
         <v>-12.26901555026414</v>
       </c>
     </row>
     <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B72">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>9.670469095114866</v>
       </c>
       <c r="C72">
@@ -75520,7 +75675,7 @@
         <v>2.1693503203547408E-5</v>
       </c>
       <c r="I72">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>-10.892849920721391</v>
       </c>
       <c r="J72">
@@ -75540,7 +75695,7 @@
         <v>-10.738497733786049</v>
       </c>
       <c r="T72">
-        <f t="shared" ref="T72:T74" si="76">1/U72/(0.000086173)</f>
+        <f t="shared" ref="T72:T74" si="79">1/U72/(0.000086173)</f>
         <v>9.670469095114866</v>
       </c>
       <c r="U72">
@@ -75562,29 +75717,29 @@
         <v>2.6038092930128246E-6</v>
       </c>
       <c r="AA72">
-        <f t="shared" ref="AA72:AA74" si="77">LN(V72)</f>
+        <f t="shared" ref="AA72:AA74" si="80">LN(V72)</f>
         <v>-12.919676396494509</v>
       </c>
       <c r="AB72">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>-13.12225302017762</v>
       </c>
       <c r="AC72">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>-12.992240560337933</v>
       </c>
       <c r="AD72">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>-12.98377813189888</v>
       </c>
       <c r="AE72">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>-12.85853507247004</v>
       </c>
     </row>
     <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B73">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>10.549602649216217</v>
       </c>
       <c r="C73">
@@ -75606,7 +75761,7 @@
         <v>1.1812153654511798E-5</v>
       </c>
       <c r="I73">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>-11.411840015536567</v>
       </c>
       <c r="J73">
@@ -75626,7 +75781,7 @@
         <v>-11.346381585827229</v>
       </c>
       <c r="T73">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>10.549602649216217</v>
       </c>
       <c r="U73">
@@ -75648,29 +75803,29 @@
         <v>1.051478051659922E-6</v>
       </c>
       <c r="AA73">
+        <f t="shared" si="80"/>
+        <v>-13.616597160007688</v>
+      </c>
+      <c r="AB73">
+        <f t="shared" si="75"/>
+        <v>-13.626119442451174</v>
+      </c>
+      <c r="AC73">
+        <f t="shared" si="76"/>
+        <v>-13.682128626269701</v>
+      </c>
+      <c r="AD73">
         <f t="shared" si="77"/>
-        <v>-13.616597160007688</v>
-      </c>
-      <c r="AB73">
-        <f t="shared" si="72"/>
-        <v>-13.626119442451174</v>
-      </c>
-      <c r="AC73">
-        <f t="shared" si="73"/>
-        <v>-13.682128626269701</v>
-      </c>
-      <c r="AD73">
-        <f t="shared" si="74"/>
         <v>-13.505568889425133</v>
       </c>
       <c r="AE73">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>-13.765313715383446</v>
       </c>
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B74">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>11.604562914137839</v>
       </c>
       <c r="C74">
@@ -75692,7 +75847,7 @@
         <v>6.8577288207771175E-6</v>
       </c>
       <c r="I74">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>-12.121657346868909</v>
       </c>
       <c r="J74">
@@ -75712,7 +75867,7 @@
         <v>-11.890134246732602</v>
       </c>
       <c r="T74">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>11.604562914137839</v>
       </c>
       <c r="U74">
@@ -75734,23 +75889,23 @@
         <v>4.0590742170490476E-7</v>
       </c>
       <c r="AA74">
+        <f t="shared" si="80"/>
+        <v>-15.055234659467814</v>
+      </c>
+      <c r="AB74">
+        <f t="shared" si="75"/>
+        <v>-14.487082760241263</v>
+      </c>
+      <c r="AC74">
+        <f t="shared" si="76"/>
+        <v>-14.739814770491627</v>
+      </c>
+      <c r="AD74">
         <f t="shared" si="77"/>
-        <v>-15.055234659467814</v>
-      </c>
-      <c r="AB74">
-        <f t="shared" si="72"/>
-        <v>-14.487082760241263</v>
-      </c>
-      <c r="AC74">
-        <f t="shared" si="73"/>
-        <v>-14.739814770491627</v>
-      </c>
-      <c r="AD74">
-        <f t="shared" si="74"/>
         <v>-14.513612904822912</v>
       </c>
       <c r="AE74">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>-14.717140728703791</v>
       </c>
     </row>
@@ -75917,39 +76072,39 @@
         <v>0.25959635181518825</v>
       </c>
       <c r="U79" cm="1">
-        <f t="array" ref="U79:V83">LINEST($AA71:$AA74,$T71:$T74,TRUE, TRUE)</f>
-        <v>-1.0486337820479501</v>
+        <f t="array" ref="U79:V83">LINEST($AA70:$AA73,$T70:$T73,TRUE, TRUE)</f>
+        <v>-0.8426327772067681</v>
       </c>
       <c r="V79">
-        <v>-2.7635323282855317</v>
+        <v>-4.7333808527297236</v>
       </c>
       <c r="W79" cm="1">
-        <f t="array" ref="W79:X83">LINEST($AB71:$AB74,$T71:$T74,TRUE, TRUE)</f>
-        <v>-0.78317634677372061</v>
+        <f t="array" ref="W79:X83">LINEST($AB70:$AB73,$T70:$T73,TRUE, TRUE)</f>
+        <v>-0.82397448555399599</v>
       </c>
       <c r="X79">
-        <v>-5.4095902912059275</v>
+        <v>-5.0090942435915018</v>
       </c>
       <c r="Y79" cm="1">
-        <f t="array" ref="Y79:Z83">LINEST($AC71:$AC74,$T71:$T74,TRUE, TRUE)</f>
-        <v>-0.87336006587439297</v>
+        <f t="array" ref="Y79:Z83">LINEST($AC70:$AC73,$T70:$T73,TRUE, TRUE)</f>
+        <v>-0.83604266869157728</v>
       </c>
       <c r="Z79">
-        <v>-4.5523814055666865</v>
+        <v>-4.8858009375821103</v>
       </c>
       <c r="AA79" cm="1">
-        <f t="array" ref="AA79:AB83">LINEST($AD71:$AD74,$T71:$T74,TRUE, TRUE)</f>
-        <v>-0.80101494526909867</v>
+        <f t="array" ref="AA79:AB83">LINEST($AD70:$AD73,$T70:$T73,TRUE, TRUE)</f>
+        <v>-0.79731016635174068</v>
       </c>
       <c r="AB79">
-        <v>-5.1686043395027284</v>
+        <v>-5.1673304061443091</v>
       </c>
       <c r="AC79" cm="1">
-        <f t="array" ref="AC79:AD83">LINEST($AE71:$AE74,$T71:$T74,TRUE, TRUE)</f>
-        <v>-0.92702656740511791</v>
+        <f t="array" ref="AC79:AD83">LINEST($AE70:$AE73,$T70:$T73,TRUE, TRUE)</f>
+        <v>-0.90554372589871501</v>
       </c>
       <c r="AD79">
-        <v>-3.9581350169359233</v>
+        <v>-4.1724973291215175</v>
       </c>
     </row>
     <row r="80" spans="2:31" x14ac:dyDescent="0.2">
@@ -75984,34 +76139,34 @@
         <v>5.0695870890374299E-2</v>
       </c>
       <c r="U80">
-        <v>8.9727553527272089E-2</v>
+        <v>3.1869754321610037E-2</v>
       </c>
       <c r="V80">
-        <v>0.9185160351126207</v>
+        <v>0.29947528548805236</v>
       </c>
       <c r="W80">
-        <v>5.9511608825611843E-2</v>
+        <v>7.1843888391672384E-2</v>
       </c>
       <c r="X80">
-        <v>0.60920380454884437</v>
+        <v>0.67510620789689568</v>
       </c>
       <c r="Y80">
-        <v>3.7455634038585088E-2</v>
+        <v>2.5186479108344647E-2</v>
       </c>
       <c r="Z80">
-        <v>0.38342291879488</v>
+        <v>0.23667355403163101</v>
       </c>
       <c r="AA80">
-        <v>5.0158001979146029E-2</v>
+        <v>6.1192473752643431E-2</v>
       </c>
       <c r="AB80">
-        <v>0.51345353011383776</v>
+        <v>0.57501646739607637</v>
       </c>
       <c r="AC80">
-        <v>2.7789702165540428E-2</v>
+        <v>3.5361155422424531E-2</v>
       </c>
       <c r="AD80">
-        <v>0.28447545984071176</v>
+        <v>0.33228345623415484</v>
       </c>
     </row>
     <row r="81" spans="2:31" x14ac:dyDescent="0.2">
@@ -76046,34 +76201,34 @@
         <v>2</v>
       </c>
       <c r="U81">
-        <v>0.98556819540015528</v>
+        <v>0.99714720865926032</v>
       </c>
       <c r="V81">
-        <v>0.17937451740446042</v>
+        <v>5.3769153516977843E-2</v>
       </c>
       <c r="W81">
-        <v>0.98858363957203821</v>
+        <v>0.98502287538932276</v>
       </c>
       <c r="X81">
-        <v>0.11896976673740023</v>
+        <v>0.12121163612388022</v>
       </c>
       <c r="Y81">
-        <v>0.99633492391014133</v>
+        <v>0.99818815749458034</v>
       </c>
       <c r="Z81">
-        <v>7.487762694552029E-2</v>
+        <v>4.2493445291809283E-2</v>
       </c>
       <c r="AA81">
-        <v>0.99221897622236854</v>
+        <v>0.98835646057255266</v>
       </c>
       <c r="AB81">
-        <v>0.10027095407484493</v>
+        <v>0.10324106932504587</v>
       </c>
       <c r="AC81">
-        <v>0.99820595399765477</v>
+        <v>0.9969595241047684</v>
       </c>
       <c r="AD81">
-        <v>5.5554444747481252E-2</v>
+        <v>5.9659681567008821E-2</v>
       </c>
     </row>
     <row r="82" spans="2:31" x14ac:dyDescent="0.2">
@@ -76108,31 +76263,31 @@
         <v>5.1401426506670006E-3</v>
       </c>
       <c r="U82">
-        <v>136.58280758745425</v>
+        <v>699.06774773139318</v>
       </c>
       <c r="V82">
         <v>2</v>
       </c>
       <c r="W82">
-        <v>173.18718094266211</v>
+        <v>131.53698069482581</v>
       </c>
       <c r="X82">
         <v>2</v>
       </c>
       <c r="Y82">
-        <v>543.69126287283871</v>
+        <v>1101.8487031944464</v>
       </c>
       <c r="Z82">
         <v>2</v>
       </c>
       <c r="AA82">
-        <v>255.03558518218424</v>
+        <v>169.76907524230916</v>
       </c>
       <c r="AB82">
         <v>2</v>
       </c>
       <c r="AC82">
-        <v>1112.7986157465386</v>
+        <v>655.7917631699105</v>
       </c>
       <c r="AD82">
         <v>2</v>
@@ -76140,34 +76295,34 @@
     </row>
     <row r="83" spans="2:31" x14ac:dyDescent="0.2">
       <c r="U83">
-        <v>4.3945815400788408</v>
+        <v>2.0210900540305685</v>
       </c>
       <c r="V83">
-        <v>6.4350434988166158E-2</v>
+        <v>5.782243739864662E-3</v>
       </c>
       <c r="W83">
-        <v>2.4512576564129653</v>
+        <v>1.9325756162457999</v>
       </c>
       <c r="X83">
-        <v>2.8307610795102842E-2</v>
+        <v>2.9384521463655888E-2</v>
       </c>
       <c r="Y83">
-        <v>3.048291521446044</v>
+        <v>1.9896003722638369</v>
       </c>
       <c r="Z83">
-        <v>1.1213318033985011E-2</v>
+        <v>3.6113857855359769E-3</v>
       </c>
       <c r="AA83">
-        <v>2.5641951617497054</v>
+        <v>1.80952076525167</v>
       </c>
       <c r="AB83">
-        <v>2.0108528462159325E-2</v>
+        <v>2.1317436790757857E-2</v>
       </c>
       <c r="AC83">
-        <v>3.4344262851440353</v>
+        <v>2.334144935982235</v>
       </c>
       <c r="AD83">
-        <v>6.1725926624018948E-3</v>
+        <v>7.1185552093537847E-3</v>
       </c>
     </row>
     <row r="84" spans="2:31" x14ac:dyDescent="0.2">
@@ -76200,7 +76355,7 @@
     </row>
     <row r="86" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B86">
-        <f t="shared" ref="B86:B92" si="78">1/((0.000086173)*C86)</f>
+        <f t="shared" ref="B86:B92" si="81">1/((0.000086173)*C86)</f>
         <v>8.2889735100984563</v>
       </c>
       <c r="C86">
@@ -76222,23 +76377,23 @@
         <v>7.603990828580568E-5</v>
       </c>
       <c r="I86">
-        <f t="shared" ref="I86:I87" si="79">LN(D86)</f>
+        <f t="shared" ref="I86:I87" si="82">LN(D86)</f>
         <v>-9.4863030491143938</v>
       </c>
       <c r="J86">
-        <f t="shared" ref="J86:J87" si="80">LN(E86)</f>
+        <f t="shared" ref="J86:J87" si="83">LN(E86)</f>
         <v>-9.4646354920796636</v>
       </c>
       <c r="K86">
-        <f t="shared" ref="K86:K87" si="81">LN(F86)</f>
+        <f t="shared" ref="K86:K87" si="84">LN(F86)</f>
         <v>-9.4965852809785378</v>
       </c>
       <c r="L86">
-        <f t="shared" ref="L86:L87" si="82">LN(G86)</f>
+        <f t="shared" ref="L86:L87" si="85">LN(G86)</f>
         <v>-9.4915810075102414</v>
       </c>
       <c r="M86">
-        <f t="shared" ref="M86:M87" si="83">LN(H86)</f>
+        <f t="shared" ref="M86:M87" si="86">LN(H86)</f>
         <v>-9.4842522464756822</v>
       </c>
       <c r="V86" t="s">
@@ -76259,7 +76414,7 @@
     </row>
     <row r="87" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B87">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>8.9265868570291058</v>
       </c>
       <c r="C87">
@@ -76281,23 +76436,23 @@
         <v>6.4614199410944885E-5</v>
       </c>
       <c r="I87">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>-9.6450782151490397</v>
       </c>
       <c r="J87">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>-9.6545566447770508</v>
       </c>
       <c r="K87">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>-9.6489962460218894</v>
       </c>
       <c r="L87">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>-9.6514178349355948</v>
       </c>
       <c r="M87">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>-9.6470763662063383</v>
       </c>
       <c r="T87">
@@ -76327,25 +76482,25 @@
         <v>-14.053655230031172</v>
       </c>
       <c r="AB87">
-        <f t="shared" ref="AB87:AB90" si="84">LN(W87)</f>
+        <f t="shared" ref="AB87:AB90" si="87">LN(W87)</f>
         <v>-14.086623891750866</v>
       </c>
       <c r="AC87">
-        <f t="shared" ref="AC87:AC90" si="85">LN(X87)</f>
+        <f t="shared" ref="AC87:AC90" si="88">LN(X87)</f>
         <v>-14.090385673922569</v>
       </c>
       <c r="AD87">
-        <f t="shared" ref="AD87:AD90" si="86">LN(Y87)</f>
+        <f t="shared" ref="AD87:AD90" si="89">LN(Y87)</f>
         <v>-14.114517742487246</v>
       </c>
       <c r="AE87">
-        <f t="shared" ref="AE87:AE90" si="87">LN(Z87)</f>
+        <f t="shared" ref="AE87:AE90" si="90">LN(Z87)</f>
         <v>-14.102384803064606</v>
       </c>
     </row>
     <row r="88" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B88">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>9.670469095114866</v>
       </c>
       <c r="C88">
@@ -76371,23 +76526,23 @@
         <v>-9.8359327235782601</v>
       </c>
       <c r="J88">
-        <f t="shared" ref="J88:J92" si="88">LN(E88)</f>
+        <f t="shared" ref="J88:J92" si="91">LN(E88)</f>
         <v>-9.8221684586250362</v>
       </c>
       <c r="K88">
-        <f t="shared" ref="K88:K92" si="89">LN(F88)</f>
+        <f t="shared" ref="K88:K92" si="92">LN(F88)</f>
         <v>-9.8282078150925187</v>
       </c>
       <c r="L88">
-        <f t="shared" ref="L88:L92" si="90">LN(G88)</f>
+        <f t="shared" ref="L88:L92" si="93">LN(G88)</f>
         <v>-9.8336644864000569</v>
       </c>
       <c r="M88">
-        <f t="shared" ref="M88:M92" si="91">LN(H88)</f>
+        <f t="shared" ref="M88:M92" si="94">LN(H88)</f>
         <v>-9.8405174853654724</v>
       </c>
       <c r="T88">
-        <f t="shared" ref="T88:T90" si="92">1/U88/(0.000086173)</f>
+        <f t="shared" ref="T88:T90" si="95">1/U88/(0.000086173)</f>
         <v>8.9265868570291058</v>
       </c>
       <c r="U88">
@@ -76409,29 +76564,29 @@
         <v>3.2007610177599217E-7</v>
       </c>
       <c r="AA88">
-        <f t="shared" ref="AA88:AA90" si="93">LN(V88)</f>
+        <f t="shared" ref="AA88:AA90" si="96">LN(V88)</f>
         <v>-14.928290701369804</v>
       </c>
       <c r="AB88">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>-14.907822926847411</v>
       </c>
       <c r="AC88">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-14.84819286120884</v>
       </c>
       <c r="AD88">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>-14.902075796058927</v>
       </c>
       <c r="AE88">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>-14.954707051376893</v>
       </c>
     </row>
     <row r="89" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B89">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>10.549602649216217</v>
       </c>
       <c r="C89">
@@ -76453,27 +76608,27 @@
         <v>4.2993999142461786E-5</v>
       </c>
       <c r="I89">
-        <f t="shared" ref="I89:I92" si="94">LN(D89)</f>
+        <f t="shared" ref="I89:I92" si="97">LN(D89)</f>
         <v>-10.066706805147451</v>
       </c>
       <c r="J89">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>-10.061986717754037</v>
       </c>
       <c r="K89">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>-10.041156165536664</v>
       </c>
       <c r="L89">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>-10.075489306650617</v>
       </c>
       <c r="M89">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>-10.054450006835863</v>
       </c>
       <c r="T89">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>9.670469095114866</v>
       </c>
       <c r="U89">
@@ -76495,29 +76650,29 @@
         <v>1.3290061557646655E-7</v>
       </c>
       <c r="AA89">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>-15.885986123497519</v>
       </c>
       <c r="AB89">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>-15.783775430321079</v>
       </c>
       <c r="AC89">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-15.813649476116641</v>
       </c>
       <c r="AD89">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>-15.776113761717866</v>
       </c>
       <c r="AE89">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>-15.833664239360839</v>
       </c>
     </row>
     <row r="90" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B90">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>11.604562914137839</v>
       </c>
       <c r="C90">
@@ -76539,27 +76694,27 @@
         <v>3.1632991098414152E-5</v>
       </c>
       <c r="I90">
+        <f t="shared" si="97"/>
+        <v>-10.33878958340371</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="91"/>
+        <v>-10.343156851625659</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="92"/>
+        <v>-10.316460039441514</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="93"/>
+        <v>-10.362715195854973</v>
+      </c>
+      <c r="M90">
         <f t="shared" si="94"/>
-        <v>-10.33878958340371</v>
-      </c>
-      <c r="J90">
-        <f t="shared" si="88"/>
-        <v>-10.343156851625659</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="89"/>
-        <v>-10.316460039441514</v>
-      </c>
-      <c r="L90">
-        <f t="shared" si="90"/>
-        <v>-10.362715195854973</v>
-      </c>
-      <c r="M90">
-        <f t="shared" si="91"/>
         <v>-10.361309959881744</v>
       </c>
       <c r="T90">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>10.549602649216217</v>
       </c>
       <c r="U90">
@@ -76581,29 +76736,29 @@
         <v>4.2061947300048467E-8</v>
       </c>
       <c r="AA90">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>-17.305760193037049</v>
       </c>
       <c r="AB90">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>-16.836254010202335</v>
       </c>
       <c r="AC90">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>-16.791729934414597</v>
       </c>
       <c r="AD90">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>-16.901030287126328</v>
       </c>
       <c r="AE90">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>-16.984122369596925</v>
       </c>
     </row>
     <row r="91" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B91">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>12.893958793486487</v>
       </c>
       <c r="C91">
@@ -76625,29 +76780,29 @@
         <v>2.2103707869795913E-5</v>
       </c>
       <c r="I91">
+        <f t="shared" si="97"/>
+        <v>-10.718705403354006</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="91"/>
+        <v>-10.688010562859665</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="92"/>
+        <v>-10.68038484323718</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="93"/>
+        <v>-10.71360092533922</v>
+      </c>
+      <c r="M91">
         <f t="shared" si="94"/>
-        <v>-10.718705403354006</v>
-      </c>
-      <c r="J91">
-        <f t="shared" si="88"/>
-        <v>-10.688010562859665</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="89"/>
-        <v>-10.68038484323718</v>
-      </c>
-      <c r="L91">
-        <f t="shared" si="90"/>
-        <v>-10.71360092533922</v>
-      </c>
-      <c r="M91">
-        <f t="shared" si="91"/>
         <v>-10.719765186599696</v>
       </c>
     </row>
     <row r="92" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B92">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>14.5057036426723</v>
       </c>
       <c r="C92">
@@ -76669,23 +76824,23 @@
         <v>1.3678028037874853E-5</v>
       </c>
       <c r="I92">
+        <f t="shared" si="97"/>
+        <v>-11.18179752058893</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="91"/>
+        <v>-11.127543651499444</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="92"/>
+        <v>-11.137320173440187</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="93"/>
+        <v>-11.184215029330769</v>
+      </c>
+      <c r="M92">
         <f t="shared" si="94"/>
-        <v>-11.18179752058893</v>
-      </c>
-      <c r="J92">
-        <f t="shared" si="88"/>
-        <v>-11.127543651499444</v>
-      </c>
-      <c r="K92">
-        <f t="shared" si="89"/>
-        <v>-11.137320173440187</v>
-      </c>
-      <c r="L92">
-        <f t="shared" si="90"/>
-        <v>-11.184215029330769</v>
-      </c>
-      <c r="M92">
-        <f t="shared" si="91"/>
         <v>-11.19971980543853</v>
       </c>
     </row>
@@ -77176,19 +77331,19 @@
         <v>-12.269889288605393</v>
       </c>
       <c r="AB103">
-        <f t="shared" ref="AB103:AB106" si="95">LN(W103)</f>
+        <f t="shared" ref="AB103:AB106" si="98">LN(W103)</f>
         <v>-12.301818031719398</v>
       </c>
       <c r="AC103">
-        <f t="shared" ref="AC103:AC106" si="96">LN(X103)</f>
+        <f t="shared" ref="AC103:AC106" si="99">LN(X103)</f>
         <v>-12.245764228128797</v>
       </c>
       <c r="AD103">
-        <f t="shared" ref="AD103:AD106" si="97">LN(Y103)</f>
+        <f t="shared" ref="AD103:AD106" si="100">LN(Y103)</f>
         <v>-12.252441235617491</v>
       </c>
       <c r="AE103">
-        <f t="shared" ref="AE103:AE106" si="98">LN(Z103)</f>
+        <f t="shared" ref="AE103:AE106" si="101">LN(Z103)</f>
         <v>-12.243964467172892</v>
       </c>
     </row>
@@ -77220,23 +77375,23 @@
         <v>-10.369559918391115</v>
       </c>
       <c r="J104">
-        <f t="shared" ref="J104:J107" si="99">LN(E104)</f>
+        <f t="shared" ref="J104:J107" si="102">LN(E104)</f>
         <v>-10.433143868367114</v>
       </c>
       <c r="K104">
-        <f t="shared" ref="K104:K107" si="100">LN(F104)</f>
+        <f t="shared" ref="K104:K107" si="103">LN(F104)</f>
         <v>-10.431388060552525</v>
       </c>
       <c r="L104">
-        <f t="shared" ref="L104:L107" si="101">LN(G104)</f>
+        <f t="shared" ref="L104:L107" si="104">LN(G104)</f>
         <v>-10.308280236164908</v>
       </c>
       <c r="M104">
-        <f t="shared" ref="M104:M107" si="102">LN(H104)</f>
+        <f t="shared" ref="M104:M107" si="105">LN(H104)</f>
         <v>-10.308806941920821</v>
       </c>
       <c r="T104">
-        <f t="shared" ref="T104:T106" si="103">1/U104/(0.000086173)</f>
+        <f t="shared" ref="T104:T106" si="106">1/U104/(0.000086173)</f>
         <v>8.9265868570291058</v>
       </c>
       <c r="U104">
@@ -77258,29 +77413,29 @@
         <v>2.9218111906815395E-6</v>
       </c>
       <c r="AA104">
-        <f t="shared" ref="AA104:AA106" si="104">LN(V104)</f>
+        <f t="shared" ref="AA104:AA106" si="107">LN(V104)</f>
         <v>-12.854175677354235</v>
       </c>
       <c r="AB104">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>-12.897220340307463</v>
       </c>
       <c r="AC104">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>-12.803126192024918</v>
       </c>
       <c r="AD104">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>-12.806349251691044</v>
       </c>
       <c r="AE104">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>-12.743306863191146</v>
       </c>
     </row>
     <row r="105" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B105">
-        <f t="shared" ref="B105:B107" si="105">1/((0.000086173)*C105)</f>
+        <f t="shared" ref="B105:B107" si="108">1/((0.000086173)*C105)</f>
         <v>8.9265868570291058</v>
       </c>
       <c r="C105">
@@ -77302,27 +77457,27 @@
         <v>2.1186500140908743E-5</v>
       </c>
       <c r="I105">
-        <f t="shared" ref="I105:I107" si="106">LN(D105)</f>
+        <f t="shared" ref="I105:I107" si="109">LN(D105)</f>
         <v>-10.780519003362452</v>
       </c>
       <c r="J105">
-        <f t="shared" si="99"/>
+        <f t="shared" si="102"/>
         <v>-10.824907451167554</v>
       </c>
       <c r="K105">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>-10.896200272999639</v>
       </c>
       <c r="L105">
-        <f t="shared" si="101"/>
+        <f t="shared" si="104"/>
         <v>-10.757788179146097</v>
       </c>
       <c r="M105">
-        <f t="shared" si="102"/>
+        <f t="shared" si="105"/>
         <v>-10.762146364926693</v>
       </c>
       <c r="T105">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>9.670469095114866</v>
       </c>
       <c r="U105">
@@ -77344,29 +77499,29 @@
         <v>1.2661127721814673E-6</v>
       </c>
       <c r="AA105">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>-13.633536523942361</v>
       </c>
       <c r="AB105">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>-13.378503827437774</v>
       </c>
       <c r="AC105">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>-13.44276920658546</v>
       </c>
       <c r="AD105">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>-13.434681198863775</v>
       </c>
       <c r="AE105">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>-13.579559160656958</v>
       </c>
     </row>
     <row r="106" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B106">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>9.670469095114866</v>
       </c>
       <c r="C106">
@@ -77388,27 +77543,27 @@
         <v>1.2390581377476976E-5</v>
       </c>
       <c r="I106">
+        <f t="shared" si="109"/>
+        <v>-11.384460257637194</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="102"/>
+        <v>-11.411583012381621</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="103"/>
+        <v>-11.554342385497836</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="104"/>
+        <v>-11.414120136183437</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="105"/>
+        <v>-11.29857394030245</v>
+      </c>
+      <c r="T106">
         <f t="shared" si="106"/>
-        <v>-11.384460257637194</v>
-      </c>
-      <c r="J106">
-        <f t="shared" si="99"/>
-        <v>-11.411583012381621</v>
-      </c>
-      <c r="K106">
-        <f t="shared" si="100"/>
-        <v>-11.554342385497836</v>
-      </c>
-      <c r="L106">
-        <f t="shared" si="101"/>
-        <v>-11.414120136183437</v>
-      </c>
-      <c r="M106">
-        <f t="shared" si="102"/>
-        <v>-11.29857394030245</v>
-      </c>
-      <c r="T106">
-        <f t="shared" si="103"/>
         <v>10.549602649216217</v>
       </c>
       <c r="U106">
@@ -77430,29 +77585,29 @@
         <v>6.554391465445881E-7</v>
       </c>
       <c r="AA106">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>-14.262960385246968</v>
       </c>
       <c r="AB106">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>-14.2487956205117</v>
       </c>
       <c r="AC106">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>-14.27242915334377</v>
       </c>
       <c r="AD106">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>-14.138308197681209</v>
       </c>
       <c r="AE106">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>-14.237960373224361</v>
       </c>
     </row>
     <row r="107" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B107">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>10.549602649216217</v>
       </c>
       <c r="C107">
@@ -77474,23 +77629,23 @@
         <v>5.9817794316550433E-6</v>
       </c>
       <c r="I107">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>-12.039514483055781</v>
       </c>
       <c r="J107">
-        <f t="shared" si="99"/>
+        <f t="shared" si="102"/>
         <v>-12.030386641605659</v>
       </c>
       <c r="K107">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>-12.154172725838412</v>
       </c>
       <c r="L107">
-        <f t="shared" si="101"/>
+        <f t="shared" si="104"/>
         <v>-12.009663388817245</v>
       </c>
       <c r="M107">
-        <f t="shared" si="102"/>
+        <f t="shared" si="105"/>
         <v>-12.026792470443153</v>
       </c>
     </row>

--- a/USHPRR/UMo_defects_pressure_diffusion.xlsx
+++ b/USHPRR/UMo_defects_pressure_diffusion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BEEA5C-394A-2A4D-A462-AFB34DEEA75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8D349B-D0FC-C444-BD43-0DDDDB01798C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3380" yWindow="2200" windowWidth="33320" windowHeight="16940" activeTab="8" xr2:uid="{722D8BD5-8471-1043-985F-97373411828A}"/>
+    <workbookView xWindow="1480" yWindow="2320" windowWidth="33320" windowHeight="16940" activeTab="8" xr2:uid="{722D8BD5-8471-1043-985F-97373411828A}"/>
   </bookViews>
   <sheets>
     <sheet name="u10mo" sheetId="1" r:id="rId1"/>
@@ -4456,30 +4456,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'summary fits'!$P$6:$P$12</c:f>
+              <c:f>'summary fits'!$R$6:$R$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-0.32582452143779767</c:v>
+                  <c:v>1.1966836456386361E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.22272750687886961</c:v>
+                  <c:v>6.0483210278370106E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.44274242109919942</c:v>
+                  <c:v>2.7274478944634252E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.12453809661969778</c:v>
+                  <c:v>3.1597696053197399E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.27258255074416321</c:v>
+                  <c:v>7.4263491773062125E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.63304243569527829</c:v>
+                  <c:v>8.5543547807331484E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.74721725359803293</c:v>
+                  <c:v>1.5758492347564556E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4586,7 +4586,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5117,30 +5117,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'summary fits'!$AH$6:$AH$12</c:f>
+              <c:f>'summary fits'!$AJ$6:$AJ$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-0.69210656615731425</c:v>
+                  <c:v>9.7018995885251539E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.59037493427441445</c:v>
+                  <c:v>6.9061340602424954E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.75167340755453094</c:v>
+                  <c:v>9.5398297521739981E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.41978606168222909</c:v>
+                  <c:v>2.1498556107724452E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.4280850898092239</c:v>
+                  <c:v>0.11325582846207408</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.8426327772067681</c:v>
+                  <c:v>8.7966804282293021E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.894225210155422</c:v>
+                  <c:v>7.5502925302396301E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5247,7 +5247,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5404,10 +5404,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.71</c:v>
@@ -6427,10 +6427,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.71</c:v>
@@ -22937,16 +22937,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22975,16 +22975,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -67791,8 +67791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD85C2A0-15F3-694C-B365-17D31BFFBBCC}">
   <dimension ref="B4:T67"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView topLeftCell="N2" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69633,15 +69633,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122406FC-F6E2-B840-ADBA-E9E493C3DFAE}">
   <dimension ref="B2:BK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" topLeftCell="AN4" workbookViewId="0">
+      <selection activeCell="BJ7" activeCellId="1" sqref="AW7:AX13 BJ7:BK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="44" max="44" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="60" max="61" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -70711,7 +70711,7 @@
         <v>1.8496811942085027</v>
       </c>
       <c r="AW11">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="AX11">
         <v>-9.9074242017826737E-9</v>
@@ -70743,7 +70743,7 @@
         <v>1.4121305119782641</v>
       </c>
       <c r="BJ11">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="BK11">
         <v>-1.2976602531205245E-7</v>
@@ -70811,7 +70811,7 @@
         <v>-1.9555508930711228E-8</v>
       </c>
       <c r="AW12">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="AX12">
         <v>6.7158894608013773E-10</v>
@@ -70821,7 +70821,7 @@
         <v>-2.0431719382141597E-7</v>
       </c>
       <c r="BJ12">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="BK12">
         <v>2.7744271492817047E-8</v>

--- a/USHPRR/UMo_defects_pressure_diffusion.xlsx
+++ b/USHPRR/UMo_defects_pressure_diffusion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8D349B-D0FC-C444-BD43-0DDDDB01798C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DC6216-5AC6-3747-8937-EE35DA1B928C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="2320" windowWidth="33320" windowHeight="16940" activeTab="8" xr2:uid="{722D8BD5-8471-1043-985F-97373411828A}"/>
+    <workbookView xWindow="14440" yWindow="5520" windowWidth="33320" windowHeight="16940" activeTab="8" xr2:uid="{722D8BD5-8471-1043-985F-97373411828A}"/>
   </bookViews>
   <sheets>
     <sheet name="u10mo" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -22976,15 +22976,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -67791,8 +67791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD85C2A0-15F3-694C-B365-17D31BFFBBCC}">
   <dimension ref="B4:T67"/>
   <sheetViews>
-    <sheetView topLeftCell="N2" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView topLeftCell="S18" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69633,13 +69633,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122406FC-F6E2-B840-ADBA-E9E493C3DFAE}">
   <dimension ref="B2:BK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN4" workbookViewId="0">
-      <selection activeCell="BJ7" activeCellId="1" sqref="AW7:AX13 BJ7:BK13"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AW8" sqref="AW8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="44" max="44" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="60" max="61" width="12.1640625" customWidth="1"/>
@@ -75117,35 +75118,35 @@
       </c>
     </row>
     <row r="62" spans="2:60" x14ac:dyDescent="0.2">
-      <c r="C62" cm="1">
+      <c r="C62" s="3" cm="1">
         <f t="array" ref="C62:D66">LINEST(I54:I58,B54:B58,TRUE, TRUE)</f>
         <v>-0.12453809661969778</v>
       </c>
       <c r="D62">
         <v>-8.0598412567443471</v>
       </c>
-      <c r="E62" cm="1">
+      <c r="E62" s="3" cm="1">
         <f t="array" ref="E62:F66">LINEST(J54:J58,B54:B58,TRUE, TRUE)</f>
         <v>-0.12215546255457164</v>
       </c>
       <c r="F62">
         <v>-8.0808144886469204</v>
       </c>
-      <c r="G62" cm="1">
+      <c r="G62" s="3" cm="1">
         <f t="array" ref="G62:H66">LINEST(K54:K58,$B54:$B58,TRUE, TRUE)</f>
         <v>-0.1214482101770919</v>
       </c>
       <c r="H62">
         <v>-8.0870398245319244</v>
       </c>
-      <c r="I62" cm="1">
+      <c r="I62" s="3" cm="1">
         <f t="array" ref="I62:J66">LINEST(L54:L58,$B54:$B58,TRUE, TRUE)</f>
         <v>-0.12814339785599374</v>
       </c>
       <c r="J62">
         <v>-8.0187131009583954</v>
       </c>
-      <c r="K62" cm="1">
+      <c r="K62" s="3" cm="1">
         <f t="array" ref="K62:L66">LINEST(M54:M58,$B54:$B58,TRUE, TRUE)</f>
         <v>-0.12172447248027196</v>
       </c>
@@ -75434,6 +75435,32 @@
       </c>
       <c r="AD66">
         <v>1.0596526142016552E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="D67" s="5">
+        <f>EXP(D62)</f>
+        <v>3.1597696053197399E-4</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5">
+        <f>EXP(F62)</f>
+        <v>3.0941891456472213E-4</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5">
+        <f>EXP(H62)</f>
+        <v>3.0749866120504093E-4</v>
+      </c>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5">
+        <f>EXP(J62)</f>
+        <v>3.2924345338401968E-4</v>
+      </c>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5">
+        <f>EXP(L62)</f>
+        <v>3.0007987096238617E-4</v>
       </c>
     </row>
     <row r="68" spans="2:31" x14ac:dyDescent="0.2">

--- a/USHPRR/UMo_defects_pressure_diffusion.xlsx
+++ b/USHPRR/UMo_defects_pressure_diffusion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DC6216-5AC6-3747-8937-EE35DA1B928C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2BF0BA-FAF9-A64C-90A1-232D458D4FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="5520" windowWidth="33320" windowHeight="16940" activeTab="8" xr2:uid="{722D8BD5-8471-1043-985F-97373411828A}"/>
+    <workbookView xWindow="31280" yWindow="8200" windowWidth="20200" windowHeight="16940" activeTab="8" xr2:uid="{722D8BD5-8471-1043-985F-97373411828A}"/>
   </bookViews>
   <sheets>
     <sheet name="u10mo" sheetId="1" r:id="rId1"/>
@@ -41907,8 +41907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0245B34-3E6A-2E4D-B128-23A2E034799E}">
   <dimension ref="A1:AH85"/>
   <sheetViews>
-    <sheetView topLeftCell="O33" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="M58" workbookViewId="0">
+      <selection activeCell="AC71" sqref="AC71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48053,8 +48053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED57334-A86D-6C46-BA62-641A5BD74092}">
   <dimension ref="A1:AH117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="AA75" sqref="AA75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -62763,7 +62763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EA97D5-91F8-8443-A39A-03D5D0CAF38A}">
   <dimension ref="A1:AH73"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="Z67" sqref="Z67"/>
     </sheetView>
   </sheetViews>
@@ -67791,8 +67791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD85C2A0-15F3-694C-B365-17D31BFFBBCC}">
   <dimension ref="B4:T67"/>
   <sheetViews>
-    <sheetView topLeftCell="S18" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView topLeftCell="F23" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69617,7 +69617,7 @@
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D67" s="2">
-        <v>4.1261161631671457E-5</v>
+        <v>4.1261161631671497E-5</v>
       </c>
       <c r="E67" s="2">
         <v>3.8605037828585839E-5</v>
@@ -69631,10 +69631,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122406FC-F6E2-B840-ADBA-E9E493C3DFAE}">
-  <dimension ref="B2:BK116"/>
+  <dimension ref="B2:BK117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AW8" sqref="AW8"/>
+    <sheetView tabSelected="1" topLeftCell="R85" workbookViewId="0">
+      <selection activeCell="Z100" sqref="Z100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -71509,6 +71509,54 @@
       </c>
     </row>
     <row r="19" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="D19" s="5">
+        <f>EXP(D14)</f>
+        <v>1.1966836456386361E-3</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
+        <f>EXP(F14)</f>
+        <v>1.8843744202099158E-3</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5">
+        <f>EXP(H14)</f>
+        <v>1.2491013677736998E-3</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5">
+        <f>EXP(J14)</f>
+        <v>1.2042076344091122E-3</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5">
+        <f>EXP(L14)</f>
+        <v>1.1606375840262659E-3</v>
+      </c>
+      <c r="V19" s="5">
+        <f>EXP(V14)</f>
+        <v>9.7018995885251366E-3</v>
+      </c>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5">
+        <f>EXP(X14)</f>
+        <v>1.8912351218704569E-2</v>
+      </c>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5">
+        <f>EXP(Z14)</f>
+        <v>6.375042321436963E-3</v>
+      </c>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5">
+        <f>EXP(AB14)</f>
+        <v>7.1887271042089277E-3</v>
+      </c>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5">
+        <f>EXP(AD14)</f>
+        <v>1.9329208536275962E-2</v>
+      </c>
       <c r="AT19">
         <f>AVERAGE(AR14:AR18)</f>
         <v>-2.0114747349890359E-8</v>
@@ -73023,6 +73071,54 @@
       </c>
     </row>
     <row r="35" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="D35" s="5">
+        <f>EXP(D30)</f>
+        <v>6.0483210278370106E-4</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5">
+        <f>EXP(F30)</f>
+        <v>6.3884901413024378E-4</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5">
+        <f>EXP(H30)</f>
+        <v>6.5761051809945948E-4</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5">
+        <f>EXP(J30)</f>
+        <v>5.762778122389118E-4</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5">
+        <f>EXP(L30)</f>
+        <v>6.0868676143012782E-4</v>
+      </c>
+      <c r="V35" s="5">
+        <f>EXP(V30)</f>
+        <v>6.9061340602424772E-3</v>
+      </c>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5">
+        <f>EXP(X30)</f>
+        <v>7.8188391668400845E-3</v>
+      </c>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5">
+        <f>EXP(Z30)</f>
+        <v>8.2091911360916477E-3</v>
+      </c>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5">
+        <f>EXP(AB30)</f>
+        <v>7.1213389088236687E-3</v>
+      </c>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5">
+        <f>EXP(AD30)</f>
+        <v>7.7944437107497237E-3</v>
+      </c>
       <c r="AM35">
         <v>2.4493781143774093E-6</v>
       </c>
@@ -74524,6 +74620,54 @@
       </c>
     </row>
     <row r="51" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="D51" s="5">
+        <f>EXP(D46)</f>
+        <v>2.7274478944634252E-3</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5">
+        <f>EXP(F46)</f>
+        <v>2.4525986335299371E-3</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5">
+        <f>EXP(H46)</f>
+        <v>3.9084762692135656E-3</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5">
+        <f>EXP(J46)</f>
+        <v>2.3754292906205759E-3</v>
+      </c>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5">
+        <f>EXP(L46)</f>
+        <v>2.7918631717763331E-3</v>
+      </c>
+      <c r="V51" s="5">
+        <f>EXP(V46)</f>
+        <v>9.5398297521739981E-3</v>
+      </c>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5">
+        <f>EXP(X46)</f>
+        <v>1.3133388210349378E-2</v>
+      </c>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5">
+        <f>EXP(Z46)</f>
+        <v>1.8314686217433682E-2</v>
+      </c>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5">
+        <f>EXP(AB46)</f>
+        <v>1.6508184086827995E-2</v>
+      </c>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5">
+        <f>EXP(AD46)</f>
+        <v>1.6750854160856449E-2</v>
+      </c>
       <c r="AZ51" s="2">
         <v>5.9061611863109262E-6</v>
       </c>
@@ -75462,6 +75606,30 @@
         <f>EXP(L62)</f>
         <v>3.0007987096238617E-4</v>
       </c>
+      <c r="V67" s="5">
+        <f>EXP(V62)</f>
+        <v>2.149855610772443E-3</v>
+      </c>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5">
+        <f>EXP(X62)</f>
+        <v>1.8800616113237832E-3</v>
+      </c>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5">
+        <f>EXP(Z62)</f>
+        <v>1.5957345919980334E-3</v>
+      </c>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5">
+        <f>EXP(AB62)</f>
+        <v>3.1294422664087523E-3</v>
+      </c>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5">
+        <f>EXP(AD62)</f>
+        <v>4.3898312478889059E-3</v>
+      </c>
     </row>
     <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
@@ -76321,6 +76489,30 @@
       </c>
     </row>
     <row r="83" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="D83" s="5">
+        <f>EXP(D78)</f>
+        <v>6.9633120584606766E-3</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5">
+        <f>EXP(F78)</f>
+        <v>5.5374448787262193E-3</v>
+      </c>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5">
+        <f>EXP(H78)</f>
+        <v>6.2663770715106239E-3</v>
+      </c>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5">
+        <f>EXP(J78)</f>
+        <v>5.043858636462506E-3</v>
+      </c>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5">
+        <f>EXP(L78)</f>
+        <v>5.7781808912497849E-3</v>
+      </c>
       <c r="U83">
         <v>2.0210900540305685</v>
       </c>
@@ -76355,6 +76547,30 @@
     <row r="84" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>26</v>
+      </c>
+      <c r="V84" s="5">
+        <f>EXP(V79)</f>
+        <v>8.7966804282293021E-3</v>
+      </c>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5">
+        <f>EXP(X79)</f>
+        <v>6.676948256888502E-3</v>
+      </c>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5">
+        <f>EXP(Z79)</f>
+        <v>7.5530717996782765E-3</v>
+      </c>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="5">
+        <f>EXP(AB79)</f>
+        <v>5.6997645834463654E-3</v>
+      </c>
+      <c r="AC84" s="5"/>
+      <c r="AD84" s="5">
+        <f>EXP(AD79)</f>
+        <v>1.5413718889812645E-2</v>
       </c>
     </row>
     <row r="85" spans="2:31" x14ac:dyDescent="0.2">
@@ -77286,8 +77502,56 @@
       <c r="L100">
         <v>2.4528438092134138E-3</v>
       </c>
+      <c r="V100" s="5">
+        <f>EXP(V95)</f>
+        <v>0.11325582846207408</v>
+      </c>
+      <c r="W100" s="5"/>
+      <c r="X100" s="5">
+        <f>EXP(X95)</f>
+        <v>1.7112583571917108E-2</v>
+      </c>
+      <c r="Y100" s="5"/>
+      <c r="Z100" s="5">
+        <f>EXP(Z95)</f>
+        <v>1.6204134018796178E-2</v>
+      </c>
+      <c r="AA100" s="5"/>
+      <c r="AB100" s="5">
+        <f>EXP(AB95)</f>
+        <v>1.9604990967779064E-2</v>
+      </c>
+      <c r="AC100" s="5"/>
+      <c r="AD100" s="5">
+        <f>EXP(AD95)</f>
+        <v>2.6645405571753638E-2</v>
+      </c>
     </row>
     <row r="101" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="D101" s="5">
+        <f>EXP(D96)</f>
+        <v>7.4263491773062125E-4</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5">
+        <f>EXP(F96)</f>
+        <v>7.0250529647622581E-4</v>
+      </c>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5">
+        <f>EXP(H96)</f>
+        <v>6.8572080198373855E-4</v>
+      </c>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5">
+        <f>EXP(J96)</f>
+        <v>7.3523932561405758E-4</v>
+      </c>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5">
+        <f>EXP(L96)</f>
+        <v>7.6159068362169574E-4</v>
+      </c>
       <c r="T101" t="s">
         <v>36</v>
       </c>
@@ -77816,32 +78080,32 @@
         <v>-4.1503758623540215</v>
       </c>
       <c r="E112" cm="1">
-        <f t="array" ref="E112:F116">LINEST($I104:$I107,$B104:$B107,TRUE, TRUE)</f>
-        <v>-0.74721725359803293</v>
+        <f t="array" ref="E112:F116">LINEST($J104:$J107,$B104:$B107,TRUE, TRUE)</f>
+        <v>-0.71572620698804523</v>
       </c>
       <c r="F112">
-        <v>-4.1503758623540215</v>
+        <v>-4.4765894990469475</v>
       </c>
       <c r="G112" cm="1">
-        <f t="array" ref="G112:H116">LINEST($I104:$I107,$B104:$B107,TRUE, TRUE)</f>
-        <v>-0.74721725359803293</v>
+        <f t="array" ref="G112:H116">LINEST($K104:$K107,$B104:$B107,TRUE, TRUE)</f>
+        <v>-0.772964121446576</v>
       </c>
       <c r="H112">
-        <v>-4.1503758623540215</v>
+        <v>-4.0249257397643898</v>
       </c>
       <c r="I112" cm="1">
-        <f t="array" ref="I112:J116">LINEST($I104:$I107,$B104:$B107,TRUE, TRUE)</f>
-        <v>-0.74721725359803293</v>
+        <f t="array" ref="I112:J116">LINEST($L104:$L107,$B104:$B107,TRUE, TRUE)</f>
+        <v>-0.76446293806328658</v>
       </c>
       <c r="J112">
-        <v>-4.1503758623540215</v>
+        <v>-3.967924657032424</v>
       </c>
       <c r="K112" cm="1">
-        <f t="array" ref="K112:L116">LINEST($I104:$I107,$B104:$B107,TRUE, TRUE)</f>
-        <v>-0.74721725359803293</v>
+        <f t="array" ref="K112:L116">LINEST($M104:$M107,$B104:$B107,TRUE, TRUE)</f>
+        <v>-0.75812112893439121</v>
       </c>
       <c r="L112">
-        <v>-4.1503758623540215</v>
+        <v>-4.0038940097203852</v>
       </c>
       <c r="U112">
         <v>4.997326792576913E-2</v>
@@ -77882,28 +78146,28 @@
         <v>0.19106886917883278</v>
       </c>
       <c r="E113">
-        <v>2.0333290305787802E-2</v>
+        <v>2.0622334141445649E-2</v>
       </c>
       <c r="F113">
-        <v>0.19106886917883278</v>
+        <v>0.19378497060618205</v>
       </c>
       <c r="G113">
-        <v>2.0333290305787802E-2</v>
+        <v>2.7885241870169195E-2</v>
       </c>
       <c r="H113">
-        <v>0.19106886917883278</v>
+        <v>0.26203342158523507</v>
       </c>
       <c r="I113">
-        <v>2.0333290305787802E-2</v>
+        <v>2.8343332362563849E-2</v>
       </c>
       <c r="J113">
-        <v>0.19106886917883278</v>
+        <v>0.26633802900720782</v>
       </c>
       <c r="K113">
-        <v>2.0333290305787802E-2</v>
+        <v>2.0927228821709505E-2</v>
       </c>
       <c r="L113">
-        <v>0.19106886917883278</v>
+        <v>0.19665002003500343</v>
       </c>
       <c r="U113">
         <v>0.99379263260852935</v>
@@ -77944,28 +78208,28 @@
         <v>3.4305372954062635E-2</v>
       </c>
       <c r="E114">
-        <v>0.99852120209613571</v>
+        <v>0.99834235589983777</v>
       </c>
       <c r="F114">
-        <v>3.4305372954062635E-2</v>
+        <v>3.4793034145792774E-2</v>
       </c>
       <c r="G114">
-        <v>0.99852120209613571</v>
+        <v>0.99740384156633333</v>
       </c>
       <c r="H114">
-        <v>3.4305372954062635E-2</v>
+        <v>4.7046671142943378E-2</v>
       </c>
       <c r="I114">
-        <v>0.99852120209613571</v>
+        <v>0.99725825799680834</v>
       </c>
       <c r="J114">
-        <v>3.4305372954062635E-2</v>
+        <v>4.7819539918826419E-2</v>
       </c>
       <c r="K114">
-        <v>0.99852120209613571</v>
+        <v>0.99847834957148685</v>
       </c>
       <c r="L114">
-        <v>3.4305372954062635E-2</v>
+        <v>3.5307438138499445E-2</v>
       </c>
       <c r="U114">
         <v>320.19778109930036</v>
@@ -78006,25 +78270,25 @@
         <v>2</v>
       </c>
       <c r="E115">
-        <v>1350.4498477944828</v>
+        <v>1204.5316069983382</v>
       </c>
       <c r="F115">
         <v>2</v>
       </c>
       <c r="G115">
-        <v>1350.4498477944828</v>
+        <v>768.36900909600661</v>
       </c>
       <c r="H115">
         <v>2</v>
       </c>
       <c r="I115">
-        <v>1350.4498477944828</v>
+        <v>727.4632382156426</v>
       </c>
       <c r="J115">
         <v>2</v>
       </c>
       <c r="K115">
-        <v>1350.4498477944828</v>
+        <v>1312.3623282478977</v>
       </c>
       <c r="L115">
         <v>2</v>
@@ -78068,28 +78332,78 @@
         <v>2.3537172270346645E-3</v>
       </c>
       <c r="E116">
-        <v>1.5892885355001074</v>
+        <v>1.4581520306141655</v>
       </c>
       <c r="F116">
-        <v>2.3537172270346645E-3</v>
+        <v>2.4211104501406034E-3</v>
       </c>
       <c r="G116">
-        <v>1.5892885355001074</v>
+        <v>1.7006997167775981</v>
       </c>
       <c r="H116">
-        <v>2.3537172270346645E-3</v>
+        <v>4.4267785312645221E-3</v>
       </c>
       <c r="I116">
-        <v>1.5892885355001074</v>
+        <v>1.6634962960990725</v>
       </c>
       <c r="J116">
-        <v>2.3537172270346645E-3</v>
+        <v>4.5734167960964668E-3</v>
       </c>
       <c r="K116">
-        <v>1.5892885355001074</v>
+        <v>1.6360108104268383</v>
       </c>
       <c r="L116">
-        <v>2.3537172270346645E-3</v>
+        <v>2.4932303758079303E-3</v>
+      </c>
+      <c r="V116" s="5">
+        <f>EXP(V111)</f>
+        <v>7.5502925302396301E-3</v>
+      </c>
+      <c r="W116" s="5"/>
+      <c r="X116" s="5">
+        <f>EXP(X111)</f>
+        <v>4.8546437752844786E-3</v>
+      </c>
+      <c r="Y116" s="5"/>
+      <c r="Z116" s="5">
+        <f>EXP(Z111)</f>
+        <v>8.0428736823899127E-3</v>
+      </c>
+      <c r="AA116" s="5"/>
+      <c r="AB116" s="5">
+        <f>EXP(AB111)</f>
+        <v>4.7419264280301691E-3</v>
+      </c>
+      <c r="AC116" s="5"/>
+      <c r="AD116" s="5">
+        <f>EXP(AD111)</f>
+        <v>8.7684003059194434E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="D117" s="5">
+        <f>EXP(D112)</f>
+        <v>1.5758492347564556E-2</v>
+      </c>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5">
+        <f>EXP(F112)</f>
+        <v>1.1372131758420558E-2</v>
+      </c>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5">
+        <f>EXP(H112)</f>
+        <v>1.7864750744656356E-2</v>
+      </c>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5">
+        <f>EXP(J112)</f>
+        <v>1.8912642654409461E-2</v>
+      </c>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5">
+        <f>EXP(L112)</f>
+        <v>1.824445629566801E-2</v>
       </c>
     </row>
   </sheetData>
